--- a/src/main/resources/1015-1021抢评数据统计.xlsx
+++ b/src/main/resources/1015-1021抢评数据统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14020" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="1.来源" sheetId="1" r:id="rId1"/>
@@ -1344,13 +1344,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1371,13 +1371,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="华文仿宋"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1413,25 +1406,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1441,6 +1417,14 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1460,8 +1444,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1475,16 +1474,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1498,10 +1489,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1513,9 +1505,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1528,15 +1519,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1611,7 +1604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1623,7 +1616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1635,7 +1628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1647,7 +1646,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1659,7 +1682,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1671,55 +1754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1737,49 +1772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2192,27 +2185,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2228,6 +2201,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2276,90 +2258,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2368,7 +2361,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2377,52 +2370,52 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2511,58 +2504,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2571,37 +2564,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2633,7 +2626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3324,7 +3317,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="排名" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="20" count="21">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="20" count="21">
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
@@ -3525,7 +3518,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="点赞" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="1760" count="216">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1760" count="216">
         <n v="1108"/>
         <n v="1057"/>
         <n v="1028"/>
@@ -3981,7 +3974,7 @@
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="序号" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="21" maxValue="260" count="101">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="260" count="101">
         <n v="21"/>
         <n v="22"/>
         <n v="23"/>
@@ -4121,7 +4114,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="排名" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="20" count="21">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="20" count="21">
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
@@ -4200,7 +4193,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="点赞" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="108" maxValue="1760" count="99">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1760" count="99">
         <n v="821"/>
         <n v="791"/>
         <n v="773"/>
@@ -17203,8 +17196,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -17528,7 +17521,7 @@
   <sheetPr/>
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -18056,7 +18049,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="22" ht="17.55" spans="6:12">
+    <row r="22" spans="6:12">
       <c r="F22">
         <v>20</v>
       </c>
@@ -48749,7 +48742,6 @@
       <c r="W2" t="s">
         <v>401</v>
       </c>
-      <c r="X2"/>
       <c r="AA2" t="s">
         <v>35</v>
       </c>
@@ -49024,7 +49016,6 @@
       <c r="W4">
         <v>12424</v>
       </c>
-      <c r="X4"/>
       <c r="AA4" t="s">
         <v>126</v>
       </c>
@@ -49162,7 +49153,6 @@
       <c r="W5">
         <v>4085</v>
       </c>
-      <c r="X5"/>
       <c r="AA5" t="s">
         <v>235</v>
       </c>
@@ -49300,7 +49290,6 @@
       <c r="W6">
         <v>27366</v>
       </c>
-      <c r="X6"/>
       <c r="AA6" t="s">
         <v>293</v>
       </c>
@@ -49438,7 +49427,6 @@
       <c r="W7">
         <v>55569</v>
       </c>
-      <c r="X7"/>
       <c r="AA7" t="s">
         <v>401</v>
       </c>
